--- a/data/factor_data/regression_stats/stats_TCEHY.xlsx
+++ b/data/factor_data/regression_stats/stats_TCEHY.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005318811666275148</v>
+        <v>-0.004806584477066908</v>
       </c>
       <c r="C2">
-        <v>-6.420518055288191</v>
+        <v>-5.702957016368114</v>
       </c>
       <c r="D2">
-        <v>-0.005584854406363649</v>
+        <v>-0.005091864561815582</v>
       </c>
       <c r="E2">
-        <v>-7.060363435906433</v>
+        <v>-6.345924579653905</v>
       </c>
       <c r="F2">
-        <v>-0.005529337151058177</v>
+        <v>-0.004992792103763887</v>
       </c>
       <c r="G2">
-        <v>-7.124658543293922</v>
+        <v>-6.315182479916507</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8520359012599716</v>
+        <v>0.8544458002391958</v>
       </c>
       <c r="C3">
-        <v>15.65407848437992</v>
+        <v>15.72516323455197</v>
       </c>
       <c r="D3">
-        <v>0.8822195747796699</v>
+        <v>0.8855902431105862</v>
       </c>
       <c r="E3">
-        <v>18.4294633786857</v>
+        <v>18.771999029645</v>
       </c>
       <c r="F3">
-        <v>0.8260868830423549</v>
+        <v>0.8380939030290571</v>
       </c>
       <c r="G3">
-        <v>16.98716455927905</v>
+        <v>17.08517919271905</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.3007998302070165</v>
+        <v>0.3063356252035987</v>
       </c>
       <c r="E4">
-        <v>2.048592520072093</v>
+        <v>2.173012703715024</v>
       </c>
       <c r="F4">
-        <v>0.2120258914029886</v>
+        <v>0.2512364846588306</v>
       </c>
       <c r="G4">
-        <v>1.626095112608678</v>
+        <v>1.981164616327621</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.4641595087412117</v>
+        <v>-0.4929156771643469</v>
       </c>
       <c r="E5">
-        <v>-5.209608391325848</v>
+        <v>-5.578110617423696</v>
       </c>
       <c r="F5">
-        <v>-0.2954972994234654</v>
+        <v>-0.3554379828183601</v>
       </c>
       <c r="G5">
-        <v>-2.949224747838919</v>
+        <v>-3.530027418037528</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.146130154374111</v>
+        <v>0.07979560266243912</v>
       </c>
       <c r="G6">
-        <v>0.7037872073311827</v>
+        <v>0.3960524223732507</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.8142920373647294</v>
+        <v>-0.6345962757097044</v>
       </c>
       <c r="G7">
-        <v>-3.056795325814508</v>
+        <v>-2.497898488236382</v>
       </c>
     </row>
   </sheetData>
